--- a/Results/Calculation/plsa-partial-ner-w2v-money.xlsx
+++ b/Results/Calculation/plsa-partial-ner-w2v-money.xlsx
@@ -432,28 +432,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F2">
-        <v>0.55</v>
+        <v>0.5533980582524272</v>
       </c>
       <c r="G2">
-        <v>0.74</v>
+        <v>0.7549668874172185</v>
       </c>
       <c r="H2">
-        <v>0.63</v>
+        <v>0.6386554621848739</v>
       </c>
       <c r="I2">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -461,28 +461,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C3">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D3">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E3">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F3">
-        <v>0.66</v>
+        <v>0.6642335766423357</v>
       </c>
       <c r="G3">
-        <v>0.82</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="H3">
+        <v>0.7413441955193483</v>
+      </c>
+      <c r="I3">
         <v>0.73</v>
-      </c>
-      <c r="I3">
-        <v>0.72</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -490,25 +490,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C4">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4">
-        <v>0.92</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G4">
-        <v>0.85</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H4">
-        <v>0.88</v>
+        <v>0.8859060402684563</v>
       </c>
       <c r="I4">
         <v>0.93</v>
@@ -519,7 +519,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C5">
         <v>275</v>
@@ -528,19 +528,19 @@
         <v>57</v>
       </c>
       <c r="E5">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F5">
-        <v>0.64</v>
+        <v>0.6346153846153846</v>
       </c>
       <c r="G5">
-        <v>0.78</v>
+        <v>0.7615384615384615</v>
       </c>
       <c r="H5">
-        <v>0.7</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="I5">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
   </sheetData>
